--- a/Code/Results/Cases/Case_0_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021144384629931</v>
+        <v>1.052341433164792</v>
       </c>
       <c r="D2">
-        <v>1.036383866183019</v>
+        <v>1.06233296558097</v>
       </c>
       <c r="E2">
-        <v>1.034301560792843</v>
+        <v>1.059486112305843</v>
       </c>
       <c r="F2">
-        <v>1.044275210725976</v>
+        <v>1.070943064865677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057952469450094</v>
+        <v>1.043765718785753</v>
       </c>
       <c r="J2">
-        <v>1.042710553123201</v>
+        <v>1.057364545090457</v>
       </c>
       <c r="K2">
-        <v>1.047358560353199</v>
+        <v>1.065054597941509</v>
       </c>
       <c r="L2">
-        <v>1.045302841655897</v>
+        <v>1.062215485499374</v>
       </c>
       <c r="M2">
-        <v>1.055150348565592</v>
+        <v>1.073641556505679</v>
       </c>
       <c r="N2">
-        <v>1.044191321709208</v>
+        <v>1.058866124025895</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026100943941234</v>
+        <v>1.053383442592033</v>
       </c>
       <c r="D3">
-        <v>1.040780760248798</v>
+        <v>1.063305433459447</v>
       </c>
       <c r="E3">
-        <v>1.0384703501151</v>
+        <v>1.06041129721509</v>
       </c>
       <c r="F3">
-        <v>1.048809667417391</v>
+        <v>1.071949977632898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059377034561129</v>
+        <v>1.043967765682469</v>
       </c>
       <c r="J3">
-        <v>1.045904505197037</v>
+        <v>1.058056549299484</v>
       </c>
       <c r="K3">
-        <v>1.050917136178954</v>
+        <v>1.065841464785452</v>
       </c>
       <c r="L3">
-        <v>1.048633566077427</v>
+        <v>1.062954628572978</v>
       </c>
       <c r="M3">
-        <v>1.058853905694413</v>
+        <v>1.074464457026014</v>
       </c>
       <c r="N3">
-        <v>1.047389809561341</v>
+        <v>1.059559110960272</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029238201923929</v>
+        <v>1.054057755711031</v>
       </c>
       <c r="D4">
-        <v>1.04356844530226</v>
+        <v>1.063935012681823</v>
       </c>
       <c r="E4">
-        <v>1.041114510266944</v>
+        <v>1.061010352412002</v>
       </c>
       <c r="F4">
-        <v>1.051684952151805</v>
+        <v>1.072601897537258</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060263178261103</v>
+        <v>1.04409659364622</v>
       </c>
       <c r="J4">
-        <v>1.047922450840329</v>
+        <v>1.058503780437783</v>
       </c>
       <c r="K4">
-        <v>1.053168005581579</v>
+        <v>1.066350326414741</v>
       </c>
       <c r="L4">
-        <v>1.050740805400269</v>
+        <v>1.063432671491763</v>
       </c>
       <c r="M4">
-        <v>1.061197174079318</v>
+        <v>1.074996692514296</v>
       </c>
       <c r="N4">
-        <v>1.049410620918907</v>
+        <v>1.060006977218085</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030540984096276</v>
+        <v>1.05434125184186</v>
       </c>
       <c r="D5">
-        <v>1.044727142024672</v>
+        <v>1.064199765453751</v>
       </c>
       <c r="E5">
-        <v>1.042213808133187</v>
+        <v>1.061262289887336</v>
       </c>
       <c r="F5">
-        <v>1.052880150802204</v>
+        <v>1.072876054879651</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060627377857319</v>
+        <v>1.044150295211857</v>
       </c>
       <c r="J5">
-        <v>1.04875950673967</v>
+        <v>1.058691666134038</v>
       </c>
       <c r="K5">
-        <v>1.054102295703716</v>
+        <v>1.066564180876642</v>
       </c>
       <c r="L5">
-        <v>1.051615593463311</v>
+        <v>1.063633584562795</v>
       </c>
       <c r="M5">
-        <v>1.062169982536723</v>
+        <v>1.075220387098764</v>
       </c>
       <c r="N5">
-        <v>1.050248865533637</v>
+        <v>1.060195129733579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030758799267856</v>
+        <v>1.054388852955332</v>
       </c>
       <c r="D6">
-        <v>1.044920929467187</v>
+        <v>1.064244223142196</v>
       </c>
       <c r="E6">
-        <v>1.042397676292157</v>
+        <v>1.061304596826865</v>
       </c>
       <c r="F6">
-        <v>1.053080048393814</v>
+        <v>1.07292209237181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060688045348662</v>
+        <v>1.044159285086653</v>
       </c>
       <c r="J6">
-        <v>1.04889940091734</v>
+        <v>1.058723205313698</v>
       </c>
       <c r="K6">
-        <v>1.054258476616774</v>
+        <v>1.066600083802093</v>
       </c>
       <c r="L6">
-        <v>1.051761834457173</v>
+        <v>1.063667315439643</v>
       </c>
       <c r="M6">
-        <v>1.062332612064258</v>
+        <v>1.075257943029017</v>
       </c>
       <c r="N6">
-        <v>1.050388958377086</v>
+        <v>1.060226713702493</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029255672299641</v>
+        <v>1.054061543742015</v>
       </c>
       <c r="D7">
-        <v>1.043583979275277</v>
+        <v>1.063938550017069</v>
       </c>
       <c r="E7">
-        <v>1.041129246906458</v>
+        <v>1.061013718441873</v>
       </c>
       <c r="F7">
-        <v>1.051700975125303</v>
+        <v>1.072605560487568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060268077210615</v>
+        <v>1.044097313008266</v>
       </c>
       <c r="J7">
-        <v>1.0479336794849</v>
+        <v>1.058506291488243</v>
       </c>
       <c r="K7">
-        <v>1.053180536129682</v>
+        <v>1.066353184228171</v>
       </c>
       <c r="L7">
-        <v>1.050752537460732</v>
+        <v>1.063435356323548</v>
       </c>
       <c r="M7">
-        <v>1.06121022057724</v>
+        <v>1.074999681757953</v>
       </c>
       <c r="N7">
-        <v>1.049421865509442</v>
+        <v>1.060009491834526</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022834354190589</v>
+        <v>1.052693571853296</v>
       </c>
       <c r="D8">
-        <v>1.037882008830935</v>
+        <v>1.062661547408538</v>
       </c>
       <c r="E8">
-        <v>1.035721748254386</v>
+        <v>1.059798699858941</v>
       </c>
       <c r="F8">
-        <v>1.045820143926935</v>
+        <v>1.071283276609161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05844141150129</v>
+        <v>1.043834396649203</v>
       </c>
       <c r="J8">
-        <v>1.043800296849198</v>
+        <v>1.057598523017506</v>
       </c>
       <c r="K8">
-        <v>1.048572175212629</v>
+        <v>1.065320583743374</v>
       </c>
       <c r="L8">
-        <v>1.046438646055442</v>
+        <v>1.06246533004739</v>
       </c>
       <c r="M8">
-        <v>1.056413260779936</v>
+        <v>1.07391970808701</v>
       </c>
       <c r="N8">
-        <v>1.045282612996291</v>
+        <v>1.059100434228437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010953177598745</v>
+        <v>1.050283526967852</v>
       </c>
       <c r="D9">
-        <v>1.027371124842474</v>
+        <v>1.060413845503032</v>
       </c>
       <c r="E9">
-        <v>1.025762709074504</v>
+        <v>1.057660769240122</v>
       </c>
       <c r="F9">
-        <v>1.034982639924822</v>
+        <v>1.068956186967405</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054940076258928</v>
+        <v>1.043356497710454</v>
       </c>
       <c r="J9">
-        <v>1.036124992735198</v>
+        <v>1.055994792875045</v>
       </c>
       <c r="K9">
-        <v>1.04003520231367</v>
+        <v>1.063498786270538</v>
       </c>
       <c r="L9">
-        <v>1.038451188812463</v>
+        <v>1.06075426895982</v>
       </c>
       <c r="M9">
-        <v>1.047532546372239</v>
+        <v>1.072014876897446</v>
       </c>
       <c r="N9">
-        <v>1.03759640907008</v>
+        <v>1.057494426605224</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002606648540399</v>
+        <v>1.04867717612191</v>
       </c>
       <c r="D10">
-        <v>1.020016954296775</v>
+        <v>1.058917125598136</v>
       </c>
       <c r="E10">
-        <v>1.018801213716943</v>
+        <v>1.056237601346218</v>
       </c>
       <c r="F10">
-        <v>1.027402097508448</v>
+        <v>1.067406814968311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052401601498984</v>
+        <v>1.043028104402945</v>
       </c>
       <c r="J10">
-        <v>1.030717226643393</v>
+        <v>1.054922895352912</v>
       </c>
       <c r="K10">
-        <v>1.034033963149799</v>
+        <v>1.06228279375918</v>
       </c>
       <c r="L10">
-        <v>1.032839105947933</v>
+        <v>1.059612418165277</v>
       </c>
       <c r="M10">
-        <v>1.041293617758094</v>
+        <v>1.070743830043101</v>
       </c>
       <c r="N10">
-        <v>1.032180963330145</v>
+        <v>1.056421006865661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9988804557521587</v>
+        <v>1.047981691999351</v>
       </c>
       <c r="D11">
-        <v>1.016741585477347</v>
+        <v>1.058269451704024</v>
       </c>
       <c r="E11">
-        <v>1.01570240067765</v>
+        <v>1.05562186503591</v>
       </c>
       <c r="F11">
-        <v>1.024026436395623</v>
+        <v>1.066736407237528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05125046178257</v>
+        <v>1.042883588687209</v>
       </c>
       <c r="J11">
-        <v>1.028299883355021</v>
+        <v>1.054458106691662</v>
       </c>
       <c r="K11">
-        <v>1.031354538549973</v>
+        <v>1.061755915550166</v>
       </c>
       <c r="L11">
-        <v>1.030334146162936</v>
+        <v>1.059117719431313</v>
       </c>
       <c r="M11">
-        <v>1.038509040940531</v>
+        <v>1.070193184822947</v>
       </c>
       <c r="N11">
-        <v>1.02976018713703</v>
+        <v>1.055955558151199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9974785122006632</v>
+        <v>1.047723369710183</v>
       </c>
       <c r="D12">
-        <v>1.015510499688744</v>
+        <v>1.058028939773416</v>
       </c>
       <c r="E12">
-        <v>1.014537936079073</v>
+        <v>1.055393229596774</v>
       </c>
       <c r="F12">
-        <v>1.022757735586125</v>
+        <v>1.066487460718673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05081474432161</v>
+        <v>1.042829561030624</v>
       </c>
       <c r="J12">
-        <v>1.027389970614617</v>
+        <v>1.054285366211275</v>
       </c>
       <c r="K12">
-        <v>1.030346456150058</v>
+        <v>1.061560158063069</v>
       </c>
       <c r="L12">
-        <v>1.029391813501126</v>
+        <v>1.058933926202884</v>
       </c>
       <c r="M12">
-        <v>1.037461546115881</v>
+        <v>1.069988610058496</v>
       </c>
       <c r="N12">
-        <v>1.028848982216166</v>
+        <v>1.055782572359517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9977800599115072</v>
+        <v>1.047778780198565</v>
       </c>
       <c r="D13">
-        <v>1.015775240020602</v>
+        <v>1.058080527539904</v>
       </c>
       <c r="E13">
-        <v>1.014788337833098</v>
+        <v>1.055442269205757</v>
       </c>
       <c r="F13">
-        <v>1.023030561196914</v>
+        <v>1.066540857290413</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050908580740393</v>
+        <v>1.042841165892291</v>
       </c>
       <c r="J13">
-        <v>1.027585703733139</v>
+        <v>1.054322424026747</v>
       </c>
       <c r="K13">
-        <v>1.030563285059953</v>
+        <v>1.061602151030337</v>
       </c>
       <c r="L13">
-        <v>1.029594495214605</v>
+        <v>1.058973352281467</v>
       </c>
       <c r="M13">
-        <v>1.037686845472767</v>
+        <v>1.070032493869968</v>
       </c>
       <c r="N13">
-        <v>1.029044993298168</v>
+        <v>1.055819682801338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9987649414357596</v>
+        <v>1.047960338764135</v>
       </c>
       <c r="D14">
-        <v>1.016640123536166</v>
+        <v>1.058249569624717</v>
       </c>
       <c r="E14">
-        <v>1.01560642407302</v>
+        <v>1.055602964396308</v>
       </c>
       <c r="F14">
-        <v>1.023921872694455</v>
+        <v>1.066715827753056</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051214613124891</v>
+        <v>1.042879129843054</v>
       </c>
       <c r="J14">
-        <v>1.028224918336797</v>
+        <v>1.054443829891945</v>
       </c>
       <c r="K14">
-        <v>1.031271475872704</v>
+        <v>1.0617397352225</v>
       </c>
       <c r="L14">
-        <v>1.030256498779541</v>
+        <v>1.059102527841036</v>
       </c>
       <c r="M14">
-        <v>1.038422727760151</v>
+        <v>1.070176275434788</v>
       </c>
       <c r="N14">
-        <v>1.029685115659882</v>
+        <v>1.05594126107679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9993693593867937</v>
+        <v>1.048072204509905</v>
       </c>
       <c r="D15">
-        <v>1.017171064657309</v>
+        <v>1.058353730395218</v>
       </c>
       <c r="E15">
-        <v>1.016108671610581</v>
+        <v>1.055701984154166</v>
       </c>
       <c r="F15">
-        <v>1.024469048356148</v>
+        <v>1.066823642488296</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051402081908941</v>
+        <v>1.042902474571979</v>
       </c>
       <c r="J15">
-        <v>1.028617149451752</v>
+        <v>1.054518619173337</v>
       </c>
       <c r="K15">
-        <v>1.031706095027973</v>
+        <v>1.06182449857802</v>
       </c>
       <c r="L15">
-        <v>1.030662787349998</v>
+        <v>1.059182111867203</v>
       </c>
       <c r="M15">
-        <v>1.038874361020482</v>
+        <v>1.070264858635182</v>
       </c>
       <c r="N15">
-        <v>1.03007790378801</v>
+        <v>1.056016156567539</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002851496030423</v>
+        <v>1.048723334722432</v>
       </c>
       <c r="D16">
-        <v>1.020232346175368</v>
+        <v>1.058960118385706</v>
       </c>
       <c r="E16">
-        <v>1.019005030671472</v>
+        <v>1.056278476424097</v>
       </c>
       <c r="F16">
-        <v>1.027624095859035</v>
+        <v>1.067451317894596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052476876783324</v>
+        <v>1.043037646601621</v>
       </c>
       <c r="J16">
-        <v>1.030876009717169</v>
+        <v>1.054953728183564</v>
       </c>
       <c r="K16">
-        <v>1.034210027630322</v>
+        <v>1.062317753690195</v>
       </c>
       <c r="L16">
-        <v>1.033003721528509</v>
+        <v>1.059645244044419</v>
       </c>
       <c r="M16">
-        <v>1.041476612244249</v>
+        <v>1.070780368831066</v>
       </c>
       <c r="N16">
-        <v>1.032339971894098</v>
+        <v>1.056451883482469</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00500503677789</v>
+        <v>1.049131791957873</v>
       </c>
       <c r="D17">
-        <v>1.022127706316453</v>
+        <v>1.059340601227265</v>
       </c>
       <c r="E17">
-        <v>1.020798727211171</v>
+        <v>1.056640230366538</v>
       </c>
       <c r="F17">
-        <v>1.029577650543849</v>
+        <v>1.06784517115447</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053136932754423</v>
+        <v>1.043121815768804</v>
       </c>
       <c r="J17">
-        <v>1.032272228277546</v>
+        <v>1.055226486821601</v>
       </c>
       <c r="K17">
-        <v>1.035758570151251</v>
+        <v>1.062627067418693</v>
       </c>
       <c r="L17">
-        <v>1.034451649006547</v>
+        <v>1.059935682703067</v>
       </c>
       <c r="M17">
-        <v>1.043086217080641</v>
+        <v>1.071103661865489</v>
       </c>
       <c r="N17">
-        <v>1.03373817324498</v>
+        <v>1.056725029469057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006250419204444</v>
+        <v>1.049370045523596</v>
       </c>
       <c r="D18">
-        <v>1.023224518334772</v>
+        <v>1.059562570504926</v>
       </c>
       <c r="E18">
-        <v>1.021836865804067</v>
+        <v>1.05685128398436</v>
       </c>
       <c r="F18">
-        <v>1.030708188732171</v>
+        <v>1.068074945428014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053516941837524</v>
+        <v>1.043170686422755</v>
       </c>
       <c r="J18">
-        <v>1.033079355263399</v>
+        <v>1.055385519583941</v>
       </c>
       <c r="K18">
-        <v>1.036654056572226</v>
+        <v>1.062807451525676</v>
       </c>
       <c r="L18">
-        <v>1.035289019566972</v>
+        <v>1.060105064597098</v>
       </c>
       <c r="M18">
-        <v>1.044017106196112</v>
+        <v>1.071292206797456</v>
       </c>
       <c r="N18">
-        <v>1.034546446443731</v>
+        <v>1.056884288076162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006673270443582</v>
+        <v>1.049451285082579</v>
       </c>
       <c r="D19">
-        <v>1.023597047271427</v>
+        <v>1.059638263073151</v>
       </c>
       <c r="E19">
-        <v>1.022189492918999</v>
+        <v>1.056923256049638</v>
       </c>
       <c r="F19">
-        <v>1.031092181096661</v>
+        <v>1.068153300358676</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053645678149442</v>
+        <v>1.043187312082049</v>
       </c>
       <c r="J19">
-        <v>1.033353350837233</v>
+        <v>1.05543973499353</v>
       </c>
       <c r="K19">
-        <v>1.036958099146208</v>
+        <v>1.062868952173255</v>
       </c>
       <c r="L19">
-        <v>1.035573341543581</v>
+        <v>1.060162815011682</v>
       </c>
       <c r="M19">
-        <v>1.044333184445852</v>
+        <v>1.071356491249804</v>
       </c>
       <c r="N19">
-        <v>1.034820831122708</v>
+        <v>1.056938580477851</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00477510045781</v>
+        <v>1.049087967599556</v>
       </c>
       <c r="D20">
-        <v>1.021925259607895</v>
+        <v>1.059299774870254</v>
       </c>
       <c r="E20">
-        <v>1.020607122954331</v>
+        <v>1.056601412554154</v>
       </c>
       <c r="F20">
-        <v>1.02936898277654</v>
+        <v>1.067802909630725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053066633452043</v>
+        <v>1.043112808359509</v>
       </c>
       <c r="J20">
-        <v>1.032123182913708</v>
+        <v>1.055197228887452</v>
       </c>
       <c r="K20">
-        <v>1.035593232780921</v>
+        <v>1.062593884430039</v>
       </c>
       <c r="L20">
-        <v>1.034297047243439</v>
+        <v>1.059904524076076</v>
       </c>
       <c r="M20">
-        <v>1.042914350561934</v>
+        <v>1.071068978312205</v>
       </c>
       <c r="N20">
-        <v>1.033588916219629</v>
+        <v>1.056695729985286</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.99847542033902</v>
+        <v>1.047906873974871</v>
       </c>
       <c r="D21">
-        <v>1.016385843030026</v>
+        <v>1.058199789200844</v>
       </c>
       <c r="E21">
-        <v>1.015365894966549</v>
+        <v>1.0555556415529</v>
       </c>
       <c r="F21">
-        <v>1.023659819972648</v>
+        <v>1.066664301299745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051124721468918</v>
+        <v>1.042867960011803</v>
       </c>
       <c r="J21">
-        <v>1.028037022185504</v>
+        <v>1.054408081572953</v>
       </c>
       <c r="K21">
-        <v>1.031063291065947</v>
+        <v>1.061699221524203</v>
       </c>
       <c r="L21">
-        <v>1.030061888431947</v>
+        <v>1.059064489961562</v>
       </c>
       <c r="M21">
-        <v>1.03820639844134</v>
+        <v>1.070133936464834</v>
       </c>
       <c r="N21">
-        <v>1.029496952674501</v>
+        <v>1.055905461991084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9944106025854922</v>
+        <v>1.047164339958031</v>
       </c>
       <c r="D22">
-        <v>1.012818841965976</v>
+        <v>1.05750854926342</v>
       </c>
       <c r="E22">
-        <v>1.011992430491427</v>
+        <v>1.054898566385035</v>
       </c>
       <c r="F22">
-        <v>1.01998398698983</v>
+        <v>1.065948834306028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049856529458419</v>
+        <v>1.042712000396859</v>
       </c>
       <c r="J22">
-        <v>1.025398095376534</v>
+        <v>1.053911350702695</v>
       </c>
       <c r="K22">
-        <v>1.028140561709693</v>
+        <v>1.061136413921368</v>
       </c>
       <c r="L22">
-        <v>1.027330000627162</v>
+        <v>1.058536095428515</v>
       </c>
       <c r="M22">
-        <v>1.035169687162458</v>
+        <v>1.069545803810877</v>
       </c>
       <c r="N22">
-        <v>1.026854278286774</v>
+        <v>1.055408025706014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965756588904428</v>
+        <v>1.047557964992921</v>
       </c>
       <c r="D23">
-        <v>1.0147180371764</v>
+        <v>1.057874953884423</v>
       </c>
       <c r="E23">
-        <v>1.013788433060627</v>
+        <v>1.055246852212763</v>
       </c>
       <c r="F23">
-        <v>1.02194108295126</v>
+        <v>1.066328076779827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050533414957461</v>
+        <v>1.042794868301429</v>
       </c>
       <c r="J23">
-        <v>1.026803877417289</v>
+        <v>1.054174730343259</v>
       </c>
       <c r="K23">
-        <v>1.029697265092187</v>
+        <v>1.061434796937911</v>
       </c>
       <c r="L23">
-        <v>1.028784995979687</v>
+        <v>1.058816229187865</v>
       </c>
       <c r="M23">
-        <v>1.036787016445104</v>
+        <v>1.069857606147848</v>
       </c>
       <c r="N23">
-        <v>1.028262056699273</v>
+        <v>1.055671779375878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004879031902133</v>
+        <v>1.049107769917755</v>
       </c>
       <c r="D24">
-        <v>1.022016763448542</v>
+        <v>1.059318222419768</v>
       </c>
       <c r="E24">
-        <v>1.020693725630051</v>
+        <v>1.056618952502287</v>
       </c>
       <c r="F24">
-        <v>1.029463298317183</v>
+        <v>1.067822005650978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05309841407861</v>
+        <v>1.043116879111528</v>
       </c>
       <c r="J24">
-        <v>1.032190552499284</v>
+        <v>1.055210449482288</v>
       </c>
       <c r="K24">
-        <v>1.035667965528801</v>
+        <v>1.062608878497281</v>
       </c>
       <c r="L24">
-        <v>1.034366927271099</v>
+        <v>1.059918603398887</v>
       </c>
       <c r="M24">
-        <v>1.042992034210633</v>
+        <v>1.071084650398597</v>
       </c>
       <c r="N24">
-        <v>1.033656381477745</v>
+        <v>1.056708969354883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014096274305163</v>
+        <v>1.050906521268724</v>
       </c>
       <c r="D25">
-        <v>1.030146837999531</v>
+        <v>1.060994625157143</v>
       </c>
       <c r="E25">
-        <v>1.028391594229706</v>
+        <v>1.058213105189737</v>
       </c>
       <c r="F25">
-        <v>1.037844240587208</v>
+        <v>1.069557442247121</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055880143992575</v>
+        <v>1.043481774240794</v>
       </c>
       <c r="J25">
-        <v>1.038158380150517</v>
+        <v>1.056409881406954</v>
       </c>
       <c r="K25">
-        <v>1.04229451806058</v>
+        <v>1.063970024549123</v>
       </c>
       <c r="L25">
-        <v>1.04056459357903</v>
+        <v>1.061196823252413</v>
       </c>
       <c r="M25">
-        <v>1.049882164466538</v>
+        <v>1.07250752846651</v>
       </c>
       <c r="N25">
-        <v>1.039632684128761</v>
+        <v>1.057910104610458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052341433164792</v>
+        <v>1.021144384629932</v>
       </c>
       <c r="D2">
-        <v>1.06233296558097</v>
+        <v>1.036383866183019</v>
       </c>
       <c r="E2">
-        <v>1.059486112305843</v>
+        <v>1.034301560792843</v>
       </c>
       <c r="F2">
-        <v>1.070943064865677</v>
+        <v>1.044275210725976</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043765718785753</v>
+        <v>1.057952469450095</v>
       </c>
       <c r="J2">
-        <v>1.057364545090457</v>
+        <v>1.042710553123202</v>
       </c>
       <c r="K2">
-        <v>1.065054597941509</v>
+        <v>1.047358560353199</v>
       </c>
       <c r="L2">
-        <v>1.062215485499374</v>
+        <v>1.045302841655897</v>
       </c>
       <c r="M2">
-        <v>1.073641556505679</v>
+        <v>1.055150348565593</v>
       </c>
       <c r="N2">
-        <v>1.058866124025895</v>
+        <v>1.044191321709209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053383442592033</v>
+        <v>1.026100943941232</v>
       </c>
       <c r="D3">
-        <v>1.063305433459447</v>
+        <v>1.040780760248797</v>
       </c>
       <c r="E3">
-        <v>1.06041129721509</v>
+        <v>1.038470350115099</v>
       </c>
       <c r="F3">
-        <v>1.071949977632898</v>
+        <v>1.048809667417389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043967765682469</v>
+        <v>1.059377034561129</v>
       </c>
       <c r="J3">
-        <v>1.058056549299484</v>
+        <v>1.045904505197036</v>
       </c>
       <c r="K3">
-        <v>1.065841464785452</v>
+        <v>1.050917136178953</v>
       </c>
       <c r="L3">
-        <v>1.062954628572978</v>
+        <v>1.048633566077426</v>
       </c>
       <c r="M3">
-        <v>1.074464457026014</v>
+        <v>1.058853905694412</v>
       </c>
       <c r="N3">
-        <v>1.059559110960272</v>
+        <v>1.047389809561339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054057755711031</v>
+        <v>1.029238201923929</v>
       </c>
       <c r="D4">
-        <v>1.063935012681823</v>
+        <v>1.04356844530226</v>
       </c>
       <c r="E4">
-        <v>1.061010352412002</v>
+        <v>1.041114510266944</v>
       </c>
       <c r="F4">
-        <v>1.072601897537258</v>
+        <v>1.051684952151806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04409659364622</v>
+        <v>1.060263178261104</v>
       </c>
       <c r="J4">
-        <v>1.058503780437783</v>
+        <v>1.04792245084033</v>
       </c>
       <c r="K4">
-        <v>1.066350326414741</v>
+        <v>1.053168005581579</v>
       </c>
       <c r="L4">
-        <v>1.063432671491763</v>
+        <v>1.05074080540027</v>
       </c>
       <c r="M4">
-        <v>1.074996692514296</v>
+        <v>1.061197174079318</v>
       </c>
       <c r="N4">
-        <v>1.060006977218085</v>
+        <v>1.049410620918908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05434125184186</v>
+        <v>1.030540984096276</v>
       </c>
       <c r="D5">
-        <v>1.064199765453751</v>
+        <v>1.044727142024671</v>
       </c>
       <c r="E5">
-        <v>1.061262289887336</v>
+        <v>1.042213808133186</v>
       </c>
       <c r="F5">
-        <v>1.072876054879651</v>
+        <v>1.052880150802203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044150295211857</v>
+        <v>1.060627377857319</v>
       </c>
       <c r="J5">
-        <v>1.058691666134038</v>
+        <v>1.048759506739669</v>
       </c>
       <c r="K5">
-        <v>1.066564180876642</v>
+        <v>1.054102295703716</v>
       </c>
       <c r="L5">
-        <v>1.063633584562795</v>
+        <v>1.051615593463311</v>
       </c>
       <c r="M5">
-        <v>1.075220387098764</v>
+        <v>1.062169982536722</v>
       </c>
       <c r="N5">
-        <v>1.060195129733579</v>
+        <v>1.050248865533636</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054388852955332</v>
+        <v>1.030758799267857</v>
       </c>
       <c r="D6">
-        <v>1.064244223142196</v>
+        <v>1.044920929467188</v>
       </c>
       <c r="E6">
-        <v>1.061304596826865</v>
+        <v>1.042397676292157</v>
       </c>
       <c r="F6">
-        <v>1.07292209237181</v>
+        <v>1.053080048393814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044159285086653</v>
+        <v>1.060688045348662</v>
       </c>
       <c r="J6">
-        <v>1.058723205313698</v>
+        <v>1.04889940091734</v>
       </c>
       <c r="K6">
-        <v>1.066600083802093</v>
+        <v>1.054258476616775</v>
       </c>
       <c r="L6">
-        <v>1.063667315439643</v>
+        <v>1.051761834457174</v>
       </c>
       <c r="M6">
-        <v>1.075257943029017</v>
+        <v>1.062332612064259</v>
       </c>
       <c r="N6">
-        <v>1.060226713702493</v>
+        <v>1.050388958377086</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054061543742015</v>
+        <v>1.029255672299641</v>
       </c>
       <c r="D7">
-        <v>1.063938550017069</v>
+        <v>1.043583979275277</v>
       </c>
       <c r="E7">
-        <v>1.061013718441873</v>
+        <v>1.041129246906459</v>
       </c>
       <c r="F7">
-        <v>1.072605560487568</v>
+        <v>1.051700975125304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044097313008266</v>
+        <v>1.060268077210615</v>
       </c>
       <c r="J7">
-        <v>1.058506291488243</v>
+        <v>1.0479336794849</v>
       </c>
       <c r="K7">
-        <v>1.066353184228171</v>
+        <v>1.053180536129683</v>
       </c>
       <c r="L7">
-        <v>1.063435356323548</v>
+        <v>1.050752537460732</v>
       </c>
       <c r="M7">
-        <v>1.074999681757953</v>
+        <v>1.061210220577241</v>
       </c>
       <c r="N7">
-        <v>1.060009491834526</v>
+        <v>1.049421865509442</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052693571853296</v>
+        <v>1.022834354190588</v>
       </c>
       <c r="D8">
-        <v>1.062661547408538</v>
+        <v>1.037882008830934</v>
       </c>
       <c r="E8">
-        <v>1.059798699858941</v>
+        <v>1.035721748254385</v>
       </c>
       <c r="F8">
-        <v>1.071283276609161</v>
+        <v>1.045820143926934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043834396649203</v>
+        <v>1.058441411501289</v>
       </c>
       <c r="J8">
-        <v>1.057598523017506</v>
+        <v>1.043800296849197</v>
       </c>
       <c r="K8">
-        <v>1.065320583743374</v>
+        <v>1.048572175212628</v>
       </c>
       <c r="L8">
-        <v>1.06246533004739</v>
+        <v>1.046438646055442</v>
       </c>
       <c r="M8">
-        <v>1.07391970808701</v>
+        <v>1.056413260779935</v>
       </c>
       <c r="N8">
-        <v>1.059100434228437</v>
+        <v>1.045282612996291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050283526967852</v>
+        <v>1.010953177598745</v>
       </c>
       <c r="D9">
-        <v>1.060413845503032</v>
+        <v>1.027371124842473</v>
       </c>
       <c r="E9">
-        <v>1.057660769240122</v>
+        <v>1.025762709074504</v>
       </c>
       <c r="F9">
-        <v>1.068956186967405</v>
+        <v>1.034982639924822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043356497710454</v>
+        <v>1.054940076258928</v>
       </c>
       <c r="J9">
-        <v>1.055994792875045</v>
+        <v>1.036124992735198</v>
       </c>
       <c r="K9">
-        <v>1.063498786270538</v>
+        <v>1.04003520231367</v>
       </c>
       <c r="L9">
-        <v>1.06075426895982</v>
+        <v>1.038451188812462</v>
       </c>
       <c r="M9">
-        <v>1.072014876897446</v>
+        <v>1.047532546372239</v>
       </c>
       <c r="N9">
-        <v>1.057494426605224</v>
+        <v>1.03759640907008</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04867717612191</v>
+        <v>1.0026066485404</v>
       </c>
       <c r="D10">
-        <v>1.058917125598136</v>
+        <v>1.020016954296776</v>
       </c>
       <c r="E10">
-        <v>1.056237601346218</v>
+        <v>1.018801213716943</v>
       </c>
       <c r="F10">
-        <v>1.067406814968311</v>
+        <v>1.027402097508449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043028104402945</v>
+        <v>1.052401601498985</v>
       </c>
       <c r="J10">
-        <v>1.054922895352912</v>
+        <v>1.030717226643394</v>
       </c>
       <c r="K10">
-        <v>1.06228279375918</v>
+        <v>1.034033963149799</v>
       </c>
       <c r="L10">
-        <v>1.059612418165277</v>
+        <v>1.032839105947934</v>
       </c>
       <c r="M10">
-        <v>1.070743830043101</v>
+        <v>1.041293617758094</v>
       </c>
       <c r="N10">
-        <v>1.056421006865661</v>
+        <v>1.032180963330146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047981691999351</v>
+        <v>0.9988804557521596</v>
       </c>
       <c r="D11">
-        <v>1.058269451704024</v>
+        <v>1.016741585477348</v>
       </c>
       <c r="E11">
-        <v>1.05562186503591</v>
+        <v>1.015702400677652</v>
       </c>
       <c r="F11">
-        <v>1.066736407237528</v>
+        <v>1.024026436395625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042883588687209</v>
+        <v>1.05125046178257</v>
       </c>
       <c r="J11">
-        <v>1.054458106691662</v>
+        <v>1.028299883355022</v>
       </c>
       <c r="K11">
-        <v>1.061755915550166</v>
+        <v>1.031354538549974</v>
       </c>
       <c r="L11">
-        <v>1.059117719431313</v>
+        <v>1.030334146162937</v>
       </c>
       <c r="M11">
-        <v>1.070193184822947</v>
+        <v>1.038509040940532</v>
       </c>
       <c r="N11">
-        <v>1.055955558151199</v>
+        <v>1.029760187137031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047723369710183</v>
+        <v>0.9974785122006625</v>
       </c>
       <c r="D12">
-        <v>1.058028939773416</v>
+        <v>1.015510499688744</v>
       </c>
       <c r="E12">
-        <v>1.055393229596774</v>
+        <v>1.014537936079072</v>
       </c>
       <c r="F12">
-        <v>1.066487460718673</v>
+        <v>1.022757735586125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042829561030624</v>
+        <v>1.05081474432161</v>
       </c>
       <c r="J12">
-        <v>1.054285366211275</v>
+        <v>1.027389970614616</v>
       </c>
       <c r="K12">
-        <v>1.061560158063069</v>
+        <v>1.030346456150057</v>
       </c>
       <c r="L12">
-        <v>1.058933926202884</v>
+        <v>1.029391813501125</v>
       </c>
       <c r="M12">
-        <v>1.069988610058496</v>
+        <v>1.03746154611588</v>
       </c>
       <c r="N12">
-        <v>1.055782572359517</v>
+        <v>1.028848982216165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047778780198565</v>
+        <v>0.9977800599115062</v>
       </c>
       <c r="D13">
-        <v>1.058080527539904</v>
+        <v>1.0157752400206</v>
       </c>
       <c r="E13">
-        <v>1.055442269205757</v>
+        <v>1.014788337833097</v>
       </c>
       <c r="F13">
-        <v>1.066540857290413</v>
+        <v>1.023030561196913</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042841165892291</v>
+        <v>1.050908580740393</v>
       </c>
       <c r="J13">
-        <v>1.054322424026747</v>
+        <v>1.027585703733138</v>
       </c>
       <c r="K13">
-        <v>1.061602151030337</v>
+        <v>1.030563285059952</v>
       </c>
       <c r="L13">
-        <v>1.058973352281467</v>
+        <v>1.029594495214603</v>
       </c>
       <c r="M13">
-        <v>1.070032493869968</v>
+        <v>1.037686845472766</v>
       </c>
       <c r="N13">
-        <v>1.055819682801338</v>
+        <v>1.029044993298166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047960338764135</v>
+        <v>0.9987649414357599</v>
       </c>
       <c r="D14">
-        <v>1.058249569624717</v>
+        <v>1.016640123536166</v>
       </c>
       <c r="E14">
-        <v>1.055602964396308</v>
+        <v>1.015606424073021</v>
       </c>
       <c r="F14">
-        <v>1.066715827753056</v>
+        <v>1.023921872694456</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042879129843054</v>
+        <v>1.051214613124891</v>
       </c>
       <c r="J14">
-        <v>1.054443829891945</v>
+        <v>1.028224918336798</v>
       </c>
       <c r="K14">
-        <v>1.0617397352225</v>
+        <v>1.031271475872705</v>
       </c>
       <c r="L14">
-        <v>1.059102527841036</v>
+        <v>1.030256498779542</v>
       </c>
       <c r="M14">
-        <v>1.070176275434788</v>
+        <v>1.038422727760151</v>
       </c>
       <c r="N14">
-        <v>1.05594126107679</v>
+        <v>1.029685115659883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048072204509905</v>
+        <v>0.9993693593867938</v>
       </c>
       <c r="D15">
-        <v>1.058353730395218</v>
+        <v>1.01717106465731</v>
       </c>
       <c r="E15">
-        <v>1.055701984154166</v>
+        <v>1.016108671610581</v>
       </c>
       <c r="F15">
-        <v>1.066823642488296</v>
+        <v>1.024469048356148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042902474571979</v>
+        <v>1.051402081908941</v>
       </c>
       <c r="J15">
-        <v>1.054518619173337</v>
+        <v>1.028617149451752</v>
       </c>
       <c r="K15">
-        <v>1.06182449857802</v>
+        <v>1.031706095027973</v>
       </c>
       <c r="L15">
-        <v>1.059182111867203</v>
+        <v>1.030662787349998</v>
       </c>
       <c r="M15">
-        <v>1.070264858635182</v>
+        <v>1.038874361020482</v>
       </c>
       <c r="N15">
-        <v>1.056016156567539</v>
+        <v>1.03007790378801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048723334722432</v>
+        <v>1.002851496030423</v>
       </c>
       <c r="D16">
-        <v>1.058960118385706</v>
+        <v>1.020232346175368</v>
       </c>
       <c r="E16">
-        <v>1.056278476424097</v>
+        <v>1.019005030671471</v>
       </c>
       <c r="F16">
-        <v>1.067451317894596</v>
+        <v>1.027624095859034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043037646601621</v>
+        <v>1.052476876783324</v>
       </c>
       <c r="J16">
-        <v>1.054953728183564</v>
+        <v>1.030876009717169</v>
       </c>
       <c r="K16">
-        <v>1.062317753690195</v>
+        <v>1.034210027630321</v>
       </c>
       <c r="L16">
-        <v>1.059645244044419</v>
+        <v>1.033003721528509</v>
       </c>
       <c r="M16">
-        <v>1.070780368831066</v>
+        <v>1.041476612244249</v>
       </c>
       <c r="N16">
-        <v>1.056451883482469</v>
+        <v>1.032339971894098</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049131791957873</v>
+        <v>1.00500503677789</v>
       </c>
       <c r="D17">
-        <v>1.059340601227265</v>
+        <v>1.022127706316453</v>
       </c>
       <c r="E17">
-        <v>1.056640230366538</v>
+        <v>1.020798727211171</v>
       </c>
       <c r="F17">
-        <v>1.06784517115447</v>
+        <v>1.029577650543849</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043121815768804</v>
+        <v>1.053136932754423</v>
       </c>
       <c r="J17">
-        <v>1.055226486821601</v>
+        <v>1.032272228277546</v>
       </c>
       <c r="K17">
-        <v>1.062627067418693</v>
+        <v>1.035758570151251</v>
       </c>
       <c r="L17">
-        <v>1.059935682703067</v>
+        <v>1.034451649006547</v>
       </c>
       <c r="M17">
-        <v>1.071103661865489</v>
+        <v>1.043086217080641</v>
       </c>
       <c r="N17">
-        <v>1.056725029469057</v>
+        <v>1.03373817324498</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049370045523596</v>
+        <v>1.006250419204445</v>
       </c>
       <c r="D18">
-        <v>1.059562570504926</v>
+        <v>1.023224518334773</v>
       </c>
       <c r="E18">
-        <v>1.05685128398436</v>
+        <v>1.021836865804068</v>
       </c>
       <c r="F18">
-        <v>1.068074945428014</v>
+        <v>1.030708188732172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043170686422755</v>
+        <v>1.053516941837525</v>
       </c>
       <c r="J18">
-        <v>1.055385519583941</v>
+        <v>1.0330793552634</v>
       </c>
       <c r="K18">
-        <v>1.062807451525676</v>
+        <v>1.036654056572227</v>
       </c>
       <c r="L18">
-        <v>1.060105064597098</v>
+        <v>1.035289019566972</v>
       </c>
       <c r="M18">
-        <v>1.071292206797456</v>
+        <v>1.044017106196113</v>
       </c>
       <c r="N18">
-        <v>1.056884288076162</v>
+        <v>1.034546446443732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049451285082579</v>
+        <v>1.006673270443582</v>
       </c>
       <c r="D19">
-        <v>1.059638263073151</v>
+        <v>1.023597047271427</v>
       </c>
       <c r="E19">
-        <v>1.056923256049638</v>
+        <v>1.022189492918999</v>
       </c>
       <c r="F19">
-        <v>1.068153300358676</v>
+        <v>1.031092181096661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043187312082049</v>
+        <v>1.053645678149442</v>
       </c>
       <c r="J19">
-        <v>1.05543973499353</v>
+        <v>1.033353350837233</v>
       </c>
       <c r="K19">
-        <v>1.062868952173255</v>
+        <v>1.036958099146208</v>
       </c>
       <c r="L19">
-        <v>1.060162815011682</v>
+        <v>1.03557334154358</v>
       </c>
       <c r="M19">
-        <v>1.071356491249804</v>
+        <v>1.044333184445852</v>
       </c>
       <c r="N19">
-        <v>1.056938580477851</v>
+        <v>1.034820831122708</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049087967599556</v>
+        <v>1.004775100457811</v>
       </c>
       <c r="D20">
-        <v>1.059299774870254</v>
+        <v>1.021925259607896</v>
       </c>
       <c r="E20">
-        <v>1.056601412554154</v>
+        <v>1.020607122954332</v>
       </c>
       <c r="F20">
-        <v>1.067802909630725</v>
+        <v>1.029368982776541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043112808359509</v>
+        <v>1.053066633452043</v>
       </c>
       <c r="J20">
-        <v>1.055197228887452</v>
+        <v>1.032123182913709</v>
       </c>
       <c r="K20">
-        <v>1.062593884430039</v>
+        <v>1.035593232780923</v>
       </c>
       <c r="L20">
-        <v>1.059904524076076</v>
+        <v>1.03429704724344</v>
       </c>
       <c r="M20">
-        <v>1.071068978312205</v>
+        <v>1.042914350561935</v>
       </c>
       <c r="N20">
-        <v>1.056695729985286</v>
+        <v>1.03358891621963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047906873974871</v>
+        <v>0.9984754203390188</v>
       </c>
       <c r="D21">
-        <v>1.058199789200844</v>
+        <v>1.016385843030025</v>
       </c>
       <c r="E21">
-        <v>1.0555556415529</v>
+        <v>1.015365894966548</v>
       </c>
       <c r="F21">
-        <v>1.066664301299745</v>
+        <v>1.023659819972647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042867960011803</v>
+        <v>1.051124721468918</v>
       </c>
       <c r="J21">
-        <v>1.054408081572953</v>
+        <v>1.028037022185503</v>
       </c>
       <c r="K21">
-        <v>1.061699221524203</v>
+        <v>1.031063291065946</v>
       </c>
       <c r="L21">
-        <v>1.059064489961562</v>
+        <v>1.030061888431945</v>
       </c>
       <c r="M21">
-        <v>1.070133936464834</v>
+        <v>1.038206398441339</v>
       </c>
       <c r="N21">
-        <v>1.055905461991084</v>
+        <v>1.029496952674501</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047164339958031</v>
+        <v>0.9944106025854929</v>
       </c>
       <c r="D22">
-        <v>1.05750854926342</v>
+        <v>1.012818841965976</v>
       </c>
       <c r="E22">
-        <v>1.054898566385035</v>
+        <v>1.011992430491427</v>
       </c>
       <c r="F22">
-        <v>1.065948834306028</v>
+        <v>1.019983986989831</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042712000396859</v>
+        <v>1.04985652945842</v>
       </c>
       <c r="J22">
-        <v>1.053911350702695</v>
+        <v>1.025398095376535</v>
       </c>
       <c r="K22">
-        <v>1.061136413921368</v>
+        <v>1.028140561709694</v>
       </c>
       <c r="L22">
-        <v>1.058536095428515</v>
+        <v>1.027330000627163</v>
       </c>
       <c r="M22">
-        <v>1.069545803810877</v>
+        <v>1.035169687162458</v>
       </c>
       <c r="N22">
-        <v>1.055408025706014</v>
+        <v>1.026854278286775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047557964992921</v>
+        <v>0.996575658890442</v>
       </c>
       <c r="D23">
-        <v>1.057874953884423</v>
+        <v>1.0147180371764</v>
       </c>
       <c r="E23">
-        <v>1.055246852212763</v>
+        <v>1.013788433060627</v>
       </c>
       <c r="F23">
-        <v>1.066328076779827</v>
+        <v>1.021941082951259</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042794868301429</v>
+        <v>1.05053341495746</v>
       </c>
       <c r="J23">
-        <v>1.054174730343259</v>
+        <v>1.026803877417289</v>
       </c>
       <c r="K23">
-        <v>1.061434796937911</v>
+        <v>1.029697265092187</v>
       </c>
       <c r="L23">
-        <v>1.058816229187865</v>
+        <v>1.028784995979686</v>
       </c>
       <c r="M23">
-        <v>1.069857606147848</v>
+        <v>1.036787016445104</v>
       </c>
       <c r="N23">
-        <v>1.055671779375878</v>
+        <v>1.028262056699272</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049107769917755</v>
+        <v>1.004879031902133</v>
       </c>
       <c r="D24">
-        <v>1.059318222419768</v>
+        <v>1.022016763448541</v>
       </c>
       <c r="E24">
-        <v>1.056618952502287</v>
+        <v>1.020693725630049</v>
       </c>
       <c r="F24">
-        <v>1.067822005650978</v>
+        <v>1.029463298317182</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043116879111528</v>
+        <v>1.05309841407861</v>
       </c>
       <c r="J24">
-        <v>1.055210449482288</v>
+        <v>1.032190552499284</v>
       </c>
       <c r="K24">
-        <v>1.062608878497281</v>
+        <v>1.0356679655288</v>
       </c>
       <c r="L24">
-        <v>1.059918603398887</v>
+        <v>1.034366927271098</v>
       </c>
       <c r="M24">
-        <v>1.071084650398597</v>
+        <v>1.042992034210632</v>
       </c>
       <c r="N24">
-        <v>1.056708969354883</v>
+        <v>1.033656381477744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050906521268724</v>
+        <v>1.014096274305164</v>
       </c>
       <c r="D25">
-        <v>1.060994625157143</v>
+        <v>1.030146837999532</v>
       </c>
       <c r="E25">
-        <v>1.058213105189737</v>
+        <v>1.028391594229707</v>
       </c>
       <c r="F25">
-        <v>1.069557442247121</v>
+        <v>1.037844240587209</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043481774240794</v>
+        <v>1.055880143992575</v>
       </c>
       <c r="J25">
-        <v>1.056409881406954</v>
+        <v>1.038158380150517</v>
       </c>
       <c r="K25">
-        <v>1.063970024549123</v>
+        <v>1.042294518060581</v>
       </c>
       <c r="L25">
-        <v>1.061196823252413</v>
+        <v>1.040564593579031</v>
       </c>
       <c r="M25">
-        <v>1.07250752846651</v>
+        <v>1.049882164466538</v>
       </c>
       <c r="N25">
-        <v>1.057910104610458</v>
+        <v>1.039632684128761</v>
       </c>
     </row>
   </sheetData>
